--- a/biology/Histoire de la zoologie et de la botanique/Jean-Guillaume_Bruguière/Jean-Guillaume_Bruguière.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Guillaume_Bruguière/Jean-Guillaume_Bruguière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Guillaume_Brugui%C3%A8re</t>
+          <t>Jean-Guillaume_Bruguière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Guillaume Bruguière, né en 1750 à Montpellier et mort en octobre 1798 à Ancône, est un naturaliste et voyageur français. Il correspondait avec l'université de Montpellier. Il s'intéressait aux invertébrés, particulièrement aux escargots.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Guillaume_Brugui%C3%A8re</t>
+          <t>Jean-Guillaume_Bruguière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence des études de médecine avant de se tourner vers les sciences naturelles. Il participe au deuxième voyage de Kerguelen (expédition La Fortune et Le Gros-Ventre) vers l'Antarctique en 1773. Il en rapporte d'intéressantes constatations dont la publication fut discrète.
 De retour à Montpellier, il étudie les mollusques testacés (i.e. mollusques protégés par une coquille) et rédige le premier volume de L'Histoire naturelle des vers pour l'Encyclopédie méthodique, s'arrêtant à la lettre "C" !
 En 1792, il accompagne l'entomologiste Guillaume-Antoine Olivier (1756-1814) dans un voyage en Perse, en passant par l'Empire ottoman (Turquie, Syrie, Irak, Egypte). Mais parti en mauvais état de santé, il supporte mal le voyage et meurt pendant le voyage de retour.
 Il a décrit divers taxons dans son livre Tableau Encyclopédique et Méthodique des trois Règnes de la Nature : vers, coquilles, mollusques et polypes divers) qui est paru en trois volumes en 1827, longtemps après son décès.
 Il a également écrit Histoire Naturelle des Vers. Vol. 1 (1792) mais il a dû s'arrêter à la lettre « C ». Christian Hee Hwass poursuivit son travail et en écrivit la plus grande part.
-Il meurt en octobre 1798 à Ancône en même temps que Pierre Jacques Bonhomme de Comeyras[1].
+Il meurt en octobre 1798 à Ancône en même temps que Pierre Jacques Bonhomme de Comeyras.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Guillaume_Brugui%C3%A8re</t>
+          <t>Jean-Guillaume_Bruguière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,48 @@
           <t>Taxons qu'il a nommés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'intéressait surtout aux mollusques et aux invertébrés, à en juger par cette sélection de taxons qu'il a nommés.
-Les genres
-Anodontites  Bruguière 1792 (mollusque)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Guillaume_Bruguière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Guillaume_Brugui%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons qu'il a nommés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anodontites  Bruguière 1792 (mollusque)
 Cerithium Bruguière 1789 (mollusque)
 Cerithium subg. Cerithium Bruguière 1789 (mollusque)
 Corbula Bruguière, 1792 (mollusque)
@@ -561,9 +612,43 @@
 Oliva Bruguière, 1789 (mollusque)
 Orthoceras Bruguière 1789 (nautiloïde)
 Ovula Bruguière 1789 (mollusque)
-Terebra Bruguière, 1789 (mollusque)
-Les espèces
-Acanthopleura spinosa (Bruguière, 1792) (chiton)
+Terebra Bruguière, 1789 (mollusque)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Guillaume_Bruguière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Guillaume_Brugui%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxons qu'il a nommés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Acanthopleura spinosa (Bruguière, 1792) (chiton)
 Anadara ovalis Bruguière 1789 (mollusque)
 Anodontites crispata Bruguière 1792 (mollusque)
 Arca imbricata Bruguière 1789 (mollusque)
@@ -598,9 +683,43 @@
 Solatopupa similis Bruguière 1792 (mollusque)
 Sphyradium doliolum Bruguière 1792 (mollusque)
 Subulina octona Bruguière 1792 (mollusque)
-Terebralia sulcata Bruguière 1792 (mollusque)
-Plante qui porte son nom
-Son nom a été donné par Lamarck à un genre de plantes : Bruguiera (une plante de la famille des Rhizophoraceae).
+Terebralia sulcata Bruguière 1792 (mollusque)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Guillaume_Bruguière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Guillaume_Brugui%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxons qu'il a nommés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plante qui porte son nom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom a été donné par Lamarck à un genre de plantes : Bruguiera (une plante de la famille des Rhizophoraceae).
 </t>
         </is>
       </c>
